--- a/Data/Test/dataset16/input_data.xlsx
+++ b/Data/Test/dataset16/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E3DDE-E4D8-4E69-87EA-CDFFB9887AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A610FB-DF03-412B-BC32-CC0EEDAC7262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4875" windowWidth="17370" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="5" max="7" width="8.796875" style="2"/>
-    <col min="8" max="8" width="8.796875" style="3"/>
+    <col min="4" max="5" width="8.75" style="1"/>
+    <col min="6" max="7" width="8.75" style="2"/>
+    <col min="8" max="9" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
       <c r="F1" s="2">
@@ -606,8 +606,11 @@
       <c r="H1" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +623,7 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>25</v>
       </c>
       <c r="F2" s="2">
@@ -632,8 +635,11 @@
       <c r="H2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -646,7 +652,7 @@
       <c r="D3" s="1">
         <v>90</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>90</v>
       </c>
       <c r="F3" s="2">
@@ -658,8 +664,11 @@
       <c r="H3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -672,7 +681,7 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="2">
@@ -684,8 +693,11 @@
       <c r="H4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -698,7 +710,7 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="2">
@@ -710,8 +722,11 @@
       <c r="H5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -724,7 +739,7 @@
       <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
       <c r="F6" s="2">
@@ -736,8 +751,11 @@
       <c r="H6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -750,7 +768,7 @@
       <c r="D7" s="1">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>16</v>
       </c>
       <c r="F7" s="2">
@@ -762,8 +780,11 @@
       <c r="H7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -776,7 +797,7 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="2">
@@ -788,8 +809,11 @@
       <c r="H8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -802,7 +826,7 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="2">
@@ -814,8 +838,11 @@
       <c r="H9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -828,8 +855,8 @@
       <c r="D10" s="1">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
+      <c r="E10" s="1">
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>20</v>
@@ -840,8 +867,11 @@
       <c r="H10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -854,7 +884,7 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="2">
@@ -866,8 +896,11 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -880,7 +913,7 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
       <c r="F12" s="2">
@@ -892,8 +925,11 @@
       <c r="H12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -906,8 +942,8 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <v>2</v>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -918,8 +954,11 @@
       <c r="H13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -932,8 +971,8 @@
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
+      <c r="E14" s="1">
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
@@ -944,8 +983,11 @@
       <c r="H14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -958,7 +1000,7 @@
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" s="2">
@@ -970,8 +1012,11 @@
       <c r="H15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -984,7 +1029,7 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="2">
@@ -996,8 +1041,11 @@
       <c r="H16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1058,7 @@
       <c r="D17" s="1">
         <v>20</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>20</v>
       </c>
       <c r="F17" s="2">
@@ -1022,8 +1070,11 @@
       <c r="H17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1087,7 @@
       <c r="D18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E18" s="2">
-        <f>-0.1</f>
+      <c r="E18" s="1">
         <v>-0.1</v>
       </c>
       <c r="F18" s="2">
@@ -1051,8 +1101,11 @@
       <c r="H18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1118,7 @@
       <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="2">
@@ -1077,8 +1130,11 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1147,7 @@
       <c r="D20" s="1">
         <v>0.9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.9</v>
       </c>
       <c r="F20" s="2">
@@ -1103,8 +1159,11 @@
       <c r="H20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1176,7 @@
       <c r="D21" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>100</v>
       </c>
       <c r="F21" s="2">
@@ -1129,8 +1188,11 @@
       <c r="H21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1205,7 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>25</v>
       </c>
       <c r="F22" s="2">
@@ -1155,8 +1217,11 @@
       <c r="H22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1234,7 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>20</v>
       </c>
       <c r="F23" s="2">
@@ -1181,8 +1246,11 @@
       <c r="H23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1263,7 @@
       <c r="D24" s="1">
         <v>60</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>60</v>
       </c>
       <c r="F24" s="2">
@@ -1207,8 +1275,11 @@
       <c r="H24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1221,7 +1292,7 @@
       <c r="D25" s="1">
         <v>6000000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>6000000</v>
       </c>
       <c r="F25" s="2">
@@ -1233,8 +1304,11 @@
       <c r="H25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1321,7 @@
       <c r="D26" s="1">
         <v>9300</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>9300</v>
       </c>
       <c r="F26" s="2">
@@ -1259,8 +1333,11 @@
       <c r="H26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1350,7 @@
       <c r="D27" s="1">
         <v>7.5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>7.5</v>
       </c>
       <c r="F27" s="2">
@@ -1285,8 +1362,11 @@
       <c r="H27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1379,7 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>4</v>
       </c>
       <c r="F28" s="2">
@@ -1311,8 +1391,11 @@
       <c r="H28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1408,7 @@
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="2">
@@ -1337,8 +1420,11 @@
       <c r="H29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1437,7 @@
       <c r="D30" s="1">
         <v>4200</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4200</v>
       </c>
       <c r="F30" s="2">
@@ -1363,8 +1449,11 @@
       <c r="H30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1466,7 @@
       <c r="D31" s="1">
         <v>1100</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>1100</v>
       </c>
       <c r="F31" s="2">
@@ -1389,8 +1478,11 @@
       <c r="H31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1495,7 @@
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="2">
@@ -1415,8 +1507,11 @@
       <c r="H32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1524,7 @@
       <c r="D33" s="1">
         <v>11</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>11</v>
       </c>
       <c r="F33" s="2">
@@ -1441,8 +1536,11 @@
       <c r="H33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1553,7 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>6</v>
       </c>
       <c r="F34" s="2">
@@ -1467,8 +1565,11 @@
       <c r="H34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1481,7 +1582,7 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>7</v>
       </c>
       <c r="F35" s="2">
@@ -1493,8 +1594,11 @@
       <c r="H35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1611,7 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="2">
@@ -1519,8 +1623,11 @@
       <c r="H36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1640,7 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="2">
@@ -1545,8 +1652,11 @@
       <c r="H37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1669,7 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -1569,6 +1679,9 @@
         <v>39</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1586,9 +1699,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1602,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1729,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1630,7 +1743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1658,7 +1771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1672,7 +1785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1686,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1700,7 +1813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1728,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1855,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1756,7 +1869,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1883,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1798,7 +1911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1826,9 +1939,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1975,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1879,7 +1992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +2009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1930,7 +2043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1998,7 +2111,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2128,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2032,7 +2145,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2049,7 +2162,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2083,7 +2196,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2114,9 +2227,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2251,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2160,7 +2273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2171,7 +2284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2182,7 +2295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2207,9 +2320,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2217,7 +2330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2225,7 +2338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2233,7 +2346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2241,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
